--- a/Data_Manual/VIX_Transactions_Brokerage.xlsx
+++ b/Data_Manual/VIX_Transactions_Brokerage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="131">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -52,12 +52,69 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">05/12/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell to Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX 06/18/2025 45.00 P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $45 EXP 06/18/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$25.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$4997.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market up on positive news of lowering tariffs with China; VIX down 15%, VVIX down 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX 06/18/2025 27.00 P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $27 EXP 06/18/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$7.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$4523.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX 06/18/2025 36.00 P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $36 EXP 06/18/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$16.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$4796.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$7.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$4433.51</t>
+  </si>
+  <si>
     <t xml:space="preserve">05/07/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Sell to Close</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIX 05/21/2025 26.00 P</t>
   </si>
   <si>
@@ -85,9 +142,6 @@
     <t xml:space="preserve">$13.75</t>
   </si>
   <si>
-    <t xml:space="preserve">$3.24</t>
-  </si>
-  <si>
     <t xml:space="preserve">$4121.76</t>
   </si>
   <si>
@@ -124,12 +178,6 @@
     <t xml:space="preserve">Buy to Open</t>
   </si>
   <si>
-    <t xml:space="preserve">VIX 06/18/2025 27.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $27 EXP 06/18/25</t>
-  </si>
-  <si>
     <t xml:space="preserve">$4.55</t>
   </si>
   <si>
@@ -151,9 +199,6 @@
     <t xml:space="preserve">$21.75</t>
   </si>
   <si>
-    <t xml:space="preserve">$2.16</t>
-  </si>
-  <si>
     <t xml:space="preserve">-$4352.16</t>
   </si>
   <si>
@@ -169,12 +214,6 @@
     <t xml:space="preserve">-$4312.16</t>
   </si>
   <si>
-    <t xml:space="preserve">VIX 06/18/2025 45.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $45 EXP 06/18/25</t>
-  </si>
-  <si>
     <t xml:space="preserve">$18.85</t>
   </si>
   <si>
@@ -209,12 +248,6 @@
   </si>
   <si>
     <t xml:space="preserve">-$3963.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 06/18/2025 36.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $36 EXP 06/18/25</t>
   </si>
   <si>
     <t xml:space="preserve">$13.40</t>
@@ -390,12 +423,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -411,6 +443,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Roboto"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,15 +498,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,24 +633,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="70.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="71.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,16 +665,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -661,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -672,10 +709,8 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>24.47</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -693,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -704,635 +739,645 @@
       <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1342,13 +1387,13 @@
         <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>1</v>
@@ -1357,13 +1402,125 @@
         <v>118</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>119</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Data_Manual/VIX_Transactions_Brokerage.xlsx
+++ b/Data_Manual/VIX_Transactions_Brokerage.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">VIX_Level</t>
+    <t xml:space="preserve">Approx_VIX_Level</t>
   </si>
   <si>
     <t xml:space="preserve">Comments</t>
@@ -672,7 +672,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -684,7 +684,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="71.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.53"/>
   </cols>
@@ -1112,6 +1113,9 @@
       <c r="H14" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <v>22.73</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1141,6 +1145,9 @@
       <c r="H15" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="I15" s="1" t="n">
+        <v>27.37</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1170,6 +1177,9 @@
       <c r="H16" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="I16" s="1" t="n">
+        <v>55.44</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1199,6 +1209,9 @@
       <c r="H17" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="I17" s="1" t="n">
+        <v>49.07</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
@@ -1225,6 +1238,9 @@
       <c r="H18" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="I18" s="1" t="n">
+        <v>46.17</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
@@ -1251,6 +1267,9 @@
       <c r="H19" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <v>53.65</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
@@ -1277,6 +1296,10 @@
       <c r="H20" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <f aca="false">(39.27+38.49)/2</f>
+        <v>38.88</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>76</v>
       </c>
@@ -1306,6 +1329,10 @@
       <c r="H21" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">(37.11+36.8)/2</f>
+        <v>36.955</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
@@ -1332,6 +1359,10 @@
       <c r="H22" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="I22" s="1" t="n">
+        <f aca="false">(37.03+35.89)/2</f>
+        <v>36.46</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
@@ -1358,6 +1389,10 @@
       <c r="H23" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="I23" s="1" t="n">
+        <f aca="false">(37.41+35.81)/2</f>
+        <v>36.61</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
@@ -1384,6 +1419,10 @@
       <c r="H24" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="I24" s="1" t="n">
+        <f aca="false">(29.29+28.77)/2</f>
+        <v>29.03</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
@@ -1410,6 +1449,10 @@
       <c r="H25" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <f aca="false">(27.79+27.46)/2</f>
+        <v>27.625</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -1436,6 +1479,10 @@
       <c r="H26" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="I26" s="1" t="n">
+        <f aca="false">(18.04+17.98)/2</f>
+        <v>18.01</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
@@ -1462,6 +1509,10 @@
       <c r="H27" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="I27" s="1" t="n">
+        <f aca="false">(27.7+27.37)/2</f>
+        <v>27.535</v>
+      </c>
       <c r="J27" s="1" t="s">
         <v>109</v>
       </c>
@@ -1491,6 +1542,10 @@
       <c r="H28" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="I28" s="1" t="n">
+        <f aca="false">(26.15+25.34)/2</f>
+        <v>25.745</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
@@ -1517,6 +1572,10 @@
       <c r="H29" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="I29" s="1" t="n">
+        <f aca="false">(14.08+14.01)/2</f>
+        <v>14.045</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
@@ -1543,6 +1602,10 @@
       <c r="H30" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="I30" s="1" t="n">
+        <f aca="false">(22.51+22.35)/2</f>
+        <v>22.43</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
@@ -1569,6 +1632,10 @@
       <c r="H31" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="I31" s="1" t="n">
+        <f aca="false">(18.92+18.78)/2</f>
+        <v>18.85</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -1595,6 +1662,10 @@
       <c r="H32" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="I32" s="1" t="n">
+        <f aca="false">(16.59+16.4)/2</f>
+        <v>16.495</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -1621,6 +1692,10 @@
       <c r="H33" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="I33" s="1" t="n">
+        <f aca="false">(27.48+26.74)/2</f>
+        <v>27.11</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
@@ -1647,6 +1722,10 @@
       <c r="H34" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="I34" s="1" t="n">
+        <f aca="false">(32.72+31.83)/2</f>
+        <v>32.275</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
@@ -1673,6 +1752,10 @@
       <c r="H35" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="I35" s="1" t="n">
+        <f aca="false">(34.61+34.05)/2</f>
+        <v>34.33</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
@@ -1698,6 +1781,10 @@
       </c>
       <c r="H36" s="2" t="s">
         <v>143</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">(43.42+42)/2</f>
+        <v>42.71</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Manual/VIX_Transactions_Brokerage.xlsx
+++ b/Data_Manual/VIX_Transactions_Brokerage.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{530FDC0D-4873-3A4E-9311-815630338785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VIX_Transactions_Brokerage" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="VIX_Transactions_Brokerage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,476 +31,475 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees &amp; Comm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approx_VIX_Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/26/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy to Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 10/22/2025 22.00 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL CBOE VOLATILITY IDX$22 EXP 10/22/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$2950.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 09/17/2025 20.00 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL CBOE VOLATILITY IDX$20 EXP 09/17/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$3010.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/13/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sell to Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 08/20/2025 45.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $45 EXP 08/20/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5077.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 07/16/2025 45.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $45 EXP 07/16/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5127.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 07/16/2025 36.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $36 EXP 07/16/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$17.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1698.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 07/16/2025 29.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $29 EXP 07/16/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3116.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$16.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3377.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2057.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 06/18/2025 45.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $45 EXP 06/18/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4997.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market up on positive news of lowering tariffs with China; VIX down 15%, VVIX down 10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 06/18/2025 27.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $27 EXP 06/18/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4523.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 06/18/2025 36.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $36 EXP 06/18/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$16.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4796.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4433.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/07/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 05/21/2025 26.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $26 EXP 05/21/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1415.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closed position ahead of Fed’s (Powell’s) comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 05/21/2025 37.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $37 EXP 05/21/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4121.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/02/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1735.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sold half of remaining position due to vol spike concerns and theta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/24/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2442.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sold half of position due to vol spike concerns and theta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$1824.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Averaged down on existing position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/07/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$21.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$4352.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$21.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$4312.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$18.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$3772.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$4110.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$4143.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$3963.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$4023.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/03/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$4280.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$5648.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/24/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 04/16/2025 25.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $25 EXP 04/16/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3494.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/10/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$3555.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missed opportunity to close position for 20% profit before vol spike in early April 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$2830.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/27/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 12/18/2024 30.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $30 EXP 12/18/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$14.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1493.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 11/20/2024 25.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $25 EXP 11/20/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1217.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/18/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 10/16/2024 40.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $40 EXP 10/16/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$21.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2152.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/21/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIX 09/18/2024 34.00 P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT CBOE VOLATILITY IDX $34 EXP 09/18/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$17.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1793.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/07/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$1182.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/06/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$1026.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/05/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$1096.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$16.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-$1636.08</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="154">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Fees &amp; Comm</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Approx_VIX_Level</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>06/26/2025</t>
+  </si>
+  <si>
+    <t>Buy to Open</t>
+  </si>
+  <si>
+    <t>VIX 10/22/2025 22.00 C</t>
+  </si>
+  <si>
+    <t>CALL CBOE VOLATILITY IDX$22 EXP 10/22/25</t>
+  </si>
+  <si>
+    <t>$2.94</t>
+  </si>
+  <si>
+    <t>$10.81</t>
+  </si>
+  <si>
+    <t>-$2950.81</t>
+  </si>
+  <si>
+    <t>VIX 09/17/2025 20.00 C</t>
+  </si>
+  <si>
+    <t>CALL CBOE VOLATILITY IDX$20 EXP 09/17/25</t>
+  </si>
+  <si>
+    <t>$3.00</t>
+  </si>
+  <si>
+    <t>-$3010.81</t>
+  </si>
+  <si>
+    <t>05/13/2025</t>
+  </si>
+  <si>
+    <t>Sell to Close</t>
+  </si>
+  <si>
+    <t>VIX 08/20/2025 45.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $45 EXP 08/20/25</t>
+  </si>
+  <si>
+    <t>$25.40</t>
+  </si>
+  <si>
+    <t>$2.16</t>
+  </si>
+  <si>
+    <t>$5077.84</t>
+  </si>
+  <si>
+    <t>VIX 07/16/2025 45.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $45 EXP 07/16/25</t>
+  </si>
+  <si>
+    <t>$25.65</t>
+  </si>
+  <si>
+    <t>$5127.84</t>
+  </si>
+  <si>
+    <t>VIX 07/16/2025 36.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $36 EXP 07/16/25</t>
+  </si>
+  <si>
+    <t>$17.00</t>
+  </si>
+  <si>
+    <t>$1.08</t>
+  </si>
+  <si>
+    <t>$1698.92</t>
+  </si>
+  <si>
+    <t>VIX 07/16/2025 29.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $29 EXP 07/16/25</t>
+  </si>
+  <si>
+    <t>$10.40</t>
+  </si>
+  <si>
+    <t>$3.24</t>
+  </si>
+  <si>
+    <t>$3116.76</t>
+  </si>
+  <si>
+    <t>$16.90</t>
+  </si>
+  <si>
+    <t>$3377.84</t>
+  </si>
+  <si>
+    <t>$10.30</t>
+  </si>
+  <si>
+    <t>$2057.84</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>VIX 06/18/2025 45.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $45 EXP 06/18/25</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>$4997.84</t>
+  </si>
+  <si>
+    <t>Market up on positive news of lowering tariffs with China; VIX down 15%, VVIX down 10%</t>
+  </si>
+  <si>
+    <t>VIX 06/18/2025 27.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $27 EXP 06/18/25</t>
+  </si>
+  <si>
+    <t>$7.55</t>
+  </si>
+  <si>
+    <t>$6.49</t>
+  </si>
+  <si>
+    <t>$4523.51</t>
+  </si>
+  <si>
+    <t>VIX 06/18/2025 36.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $36 EXP 06/18/25</t>
+  </si>
+  <si>
+    <t>$16.00</t>
+  </si>
+  <si>
+    <t>$4796.76</t>
+  </si>
+  <si>
+    <t>$7.40</t>
+  </si>
+  <si>
+    <t>$4433.51</t>
+  </si>
+  <si>
+    <t>05/07/2025</t>
+  </si>
+  <si>
+    <t>VIX 05/21/2025 26.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $26 EXP 05/21/25</t>
+  </si>
+  <si>
+    <t>$3.55</t>
+  </si>
+  <si>
+    <t>$4.32</t>
+  </si>
+  <si>
+    <t>$1415.68</t>
+  </si>
+  <si>
+    <t>Closed position ahead of Fed’s (Powell’s) comments</t>
+  </si>
+  <si>
+    <t>VIX 05/21/2025 37.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $37 EXP 05/21/25</t>
+  </si>
+  <si>
+    <t>$13.75</t>
+  </si>
+  <si>
+    <t>$4121.76</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>$4.35</t>
+  </si>
+  <si>
+    <t>$1735.68</t>
+  </si>
+  <si>
+    <t>Sold half of remaining position due to vol spike concerns and theta</t>
+  </si>
+  <si>
+    <t>04/24/2025</t>
+  </si>
+  <si>
+    <t>$3.50</t>
+  </si>
+  <si>
+    <t>$7.57</t>
+  </si>
+  <si>
+    <t>$2442.43</t>
+  </si>
+  <si>
+    <t>Sold half of position due to vol spike concerns and theta</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>$4.55</t>
+  </si>
+  <si>
+    <t>-$1824.32</t>
+  </si>
+  <si>
+    <t>Averaged down on existing position</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>$21.75</t>
+  </si>
+  <si>
+    <t>-$4352.16</t>
+  </si>
+  <si>
+    <t>$21.55</t>
+  </si>
+  <si>
+    <t>-$4312.16</t>
+  </si>
+  <si>
+    <t>$18.85</t>
+  </si>
+  <si>
+    <t>-$3772.16</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>$4.10</t>
+  </si>
+  <si>
+    <t>-$4110.81</t>
+  </si>
+  <si>
+    <t>$13.80</t>
+  </si>
+  <si>
+    <t>-$4143.24</t>
+  </si>
+  <si>
+    <t>$13.20</t>
+  </si>
+  <si>
+    <t>-$3963.24</t>
+  </si>
+  <si>
+    <t>$13.40</t>
+  </si>
+  <si>
+    <t>-$4023.24</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>$8.55</t>
+  </si>
+  <si>
+    <t>$5.40</t>
+  </si>
+  <si>
+    <t>-$4280.40</t>
+  </si>
+  <si>
+    <t>$7.05</t>
+  </si>
+  <si>
+    <t>$8.65</t>
+  </si>
+  <si>
+    <t>-$5648.65</t>
+  </si>
+  <si>
+    <t>03/24/2025</t>
+  </si>
+  <si>
+    <t>VIX 04/16/2025 25.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $25 EXP 04/16/25</t>
+  </si>
+  <si>
+    <t>$7.00</t>
+  </si>
+  <si>
+    <t>$3494.60</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>$7.10</t>
+  </si>
+  <si>
+    <t>-$3555.40</t>
+  </si>
+  <si>
+    <t>Missed opportunity to close position for 20% profit before vol spike in early April 2025</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>$5.65</t>
+  </si>
+  <si>
+    <t>-$2830.40</t>
+  </si>
+  <si>
+    <t>11/27/2024</t>
+  </si>
+  <si>
+    <t>VIX 12/18/2024 30.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $30 EXP 12/18/24</t>
+  </si>
+  <si>
+    <t>$14.95</t>
+  </si>
+  <si>
+    <t>$1493.92</t>
+  </si>
+  <si>
+    <t>11/04/2024</t>
+  </si>
+  <si>
+    <t>VIX 11/20/2024 25.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $25 EXP 11/20/24</t>
+  </si>
+  <si>
+    <t>$6.10</t>
+  </si>
+  <si>
+    <t>$1217.84</t>
+  </si>
+  <si>
+    <t>09/18/2024</t>
+  </si>
+  <si>
+    <t>VIX 10/16/2024 40.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $40 EXP 10/16/24</t>
+  </si>
+  <si>
+    <t>$21.54</t>
+  </si>
+  <si>
+    <t>$2152.92</t>
+  </si>
+  <si>
+    <t>08/21/2024</t>
+  </si>
+  <si>
+    <t>VIX 09/18/2024 34.00 P</t>
+  </si>
+  <si>
+    <t>PUT CBOE VOLATILITY IDX $34 EXP 09/18/24</t>
+  </si>
+  <si>
+    <t>$17.95</t>
+  </si>
+  <si>
+    <t>$1793.92</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>$5.90</t>
+  </si>
+  <si>
+    <t>-$1182.16</t>
+  </si>
+  <si>
+    <t>08/06/2024</t>
+  </si>
+  <si>
+    <t>$10.25</t>
+  </si>
+  <si>
+    <t>-$1026.08</t>
+  </si>
+  <si>
+    <t>08/05/2024</t>
+  </si>
+  <si>
+    <t>$10.95</t>
+  </si>
+  <si>
+    <t>-$1096.08</t>
+  </si>
+  <si>
+    <t>$16.35</t>
+  </si>
+  <si>
+    <t>-$1636.08</t>
+  </si>
+  <si>
+    <t>Opened long dated call position; VIX level at 4th historical decile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -497,23 +507,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Roboto"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -526,7 +520,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -534,111 +528,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -691,36 +656,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="71.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.53"/>
+    <col min="1" max="1" width="10.78515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.32421875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.2265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.43359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5390625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="71.60546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.4609375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -765,7 +729,7 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -777,11 +741,14 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>16.43</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -794,7 +761,7 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -806,11 +773,14 @@
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>16.37</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -823,7 +793,7 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -835,12 +805,12 @@
       <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>18.06</v>
+      <c r="I4" s="2">
+        <v>18.059999999999999</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -853,7 +823,7 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -865,12 +835,12 @@
       <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>17.96</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -883,7 +853,7 @@
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -895,12 +865,12 @@
       <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>17.79</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -913,7 +883,7 @@
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -925,12 +895,12 @@
       <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>17.72</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -943,7 +913,7 @@
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -955,12 +925,12 @@
       <c r="H8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>17.72</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -973,7 +943,7 @@
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -985,12 +955,12 @@
       <c r="H9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>17.68</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -1003,7 +973,7 @@
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1015,14 +985,14 @@
       <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>19.24</v>
+      <c r="I10" s="2">
+        <v>19.239999999999998</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1035,7 +1005,7 @@
       <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1047,14 +1017,14 @@
       <c r="H11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>19.05</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -1067,7 +1037,7 @@
       <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1079,14 +1049,14 @@
       <c r="H12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>19.14</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1099,7 +1069,7 @@
       <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1111,14 +1081,14 @@
       <c r="H13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="2">
         <v>19.47</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
@@ -1131,7 +1101,7 @@
       <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1143,14 +1113,14 @@
       <c r="H14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>24.49</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
@@ -1163,7 +1133,7 @@
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1175,14 +1145,14 @@
       <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2">
         <v>24.51</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -1195,7 +1165,7 @@
       <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1207,14 +1177,14 @@
       <c r="H16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="2">
         <v>22.73</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
@@ -1227,7 +1197,7 @@
       <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1239,14 +1209,14 @@
       <c r="H17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2">
         <v>27.37</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -1259,7 +1229,7 @@
       <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1271,14 +1241,14 @@
       <c r="H18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2">
         <v>55.44</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -1291,7 +1261,7 @@
       <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1303,12 +1273,12 @@
       <c r="H19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2">
         <v>49.07</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -1321,7 +1291,7 @@
       <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1333,12 +1303,12 @@
       <c r="H20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2">
         <v>46.17</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -1351,7 +1321,7 @@
       <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1363,12 +1333,12 @@
       <c r="H21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="2">
         <v>53.65</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
@@ -1381,7 +1351,7 @@
       <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1393,15 +1363,15 @@
       <c r="H22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="2" t="n">
-        <f aca="false">(39.27+38.49)/2</f>
-        <v>38.88</v>
+      <c r="I22" s="2">
+        <f>(39.27+38.49)/2</f>
+        <v>38.880000000000003</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>94</v>
       </c>
@@ -1414,7 +1384,7 @@
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1426,13 +1396,13 @@
       <c r="H23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="2" t="n">
-        <f aca="false">(37.11+36.8)/2</f>
-        <v>36.955</v>
+      <c r="I23" s="2">
+        <f>(37.11+36.8)/2</f>
+        <v>36.954999999999998</v>
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>94</v>
       </c>
@@ -1445,7 +1415,7 @@
       <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1457,13 +1427,13 @@
       <c r="H24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="2" t="n">
-        <f aca="false">(37.03+35.89)/2</f>
+      <c r="I24" s="2">
+        <f>(37.03+35.89)/2</f>
         <v>36.46</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -1476,7 +1446,7 @@
       <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1488,13 +1458,13 @@
       <c r="H25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="2" t="n">
-        <f aca="false">(37.41+35.81)/2</f>
+      <c r="I25" s="2">
+        <f>(37.41+35.81)/2</f>
         <v>36.61</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>103</v>
       </c>
@@ -1507,7 +1477,7 @@
       <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1519,13 +1489,13 @@
       <c r="H26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="2" t="n">
-        <f aca="false">(29.29+28.77)/2</f>
+      <c r="I26" s="2">
+        <f>(29.29+28.77)/2</f>
         <v>29.03</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>103</v>
       </c>
@@ -1538,7 +1508,7 @@
       <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1">
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1550,13 +1520,13 @@
       <c r="H27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="2" t="n">
-        <f aca="false">(27.79+27.46)/2</f>
+      <c r="I27" s="2">
+        <f>(27.79+27.46)/2</f>
         <v>27.625</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>110</v>
       </c>
@@ -1569,7 +1539,7 @@
       <c r="D28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1581,13 +1551,13 @@
       <c r="H28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="2" t="n">
-        <f aca="false">(18.04+17.98)/2</f>
-        <v>18.01</v>
+      <c r="I28" s="2">
+        <f>(18.04+17.98)/2</f>
+        <v>18.009999999999998</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
@@ -1600,7 +1570,7 @@
       <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1612,15 +1582,15 @@
       <c r="H29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="2" t="n">
-        <f aca="false">(27.7+27.37)/2</f>
+      <c r="I29" s="2">
+        <f>(27.7+27.37)/2</f>
         <v>27.535</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>119</v>
       </c>
@@ -1633,7 +1603,7 @@
       <c r="D30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1645,13 +1615,13 @@
       <c r="H30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="2" t="n">
-        <f aca="false">(26.15+25.34)/2</f>
-        <v>25.745</v>
+      <c r="I30" s="2">
+        <f>(26.15+25.34)/2</f>
+        <v>25.744999999999997</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>122</v>
       </c>
@@ -1664,7 +1634,7 @@
       <c r="D31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1676,13 +1646,13 @@
       <c r="H31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="2" t="n">
-        <f aca="false">(14.08+14.01)/2</f>
+      <c r="I31" s="2">
+        <f>(14.08+14.01)/2</f>
         <v>14.045</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>127</v>
       </c>
@@ -1695,7 +1665,7 @@
       <c r="D32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1707,13 +1677,13 @@
       <c r="H32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="2" t="n">
-        <f aca="false">(22.51+22.35)/2</f>
+      <c r="I32" s="2">
+        <f>(22.51+22.35)/2</f>
         <v>22.43</v>
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
@@ -1726,7 +1696,7 @@
       <c r="D33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1738,13 +1708,13 @@
       <c r="H33" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I33" s="2" t="n">
-        <f aca="false">(18.92+18.78)/2</f>
-        <v>18.85</v>
+      <c r="I33" s="2">
+        <f>(18.92+18.78)/2</f>
+        <v>18.850000000000001</v>
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -1757,7 +1727,7 @@
       <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1769,13 +1739,13 @@
       <c r="H34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="2" t="n">
-        <f aca="false">(16.59+16.4)/2</f>
-        <v>16.495</v>
+      <c r="I34" s="2">
+        <f>(16.59+16.4)/2</f>
+        <v>16.494999999999997</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>142</v>
       </c>
@@ -1788,7 +1758,7 @@
       <c r="D35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1800,13 +1770,13 @@
       <c r="H35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="2" t="n">
-        <f aca="false">(27.48+26.74)/2</f>
+      <c r="I35" s="2">
+        <f>(27.48+26.74)/2</f>
         <v>27.11</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>145</v>
       </c>
@@ -1819,7 +1789,7 @@
       <c r="D36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -1831,13 +1801,13 @@
       <c r="H36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I36" s="2" t="n">
-        <f aca="false">(32.72+31.83)/2</f>
-        <v>32.275</v>
+      <c r="I36" s="2">
+        <f>(32.72+31.83)/2</f>
+        <v>32.274999999999999</v>
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
@@ -1850,7 +1820,7 @@
       <c r="D37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1862,13 +1832,13 @@
       <c r="H37" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="2" t="n">
-        <f aca="false">(34.61+34.05)/2</f>
+      <c r="I37" s="2">
+        <f>(34.61+34.05)/2</f>
         <v>34.33</v>
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>148</v>
       </c>
@@ -1881,7 +1851,7 @@
       <c r="D38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1893,17 +1863,16 @@
       <c r="H38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="2" t="n">
-        <f aca="false">(43.42+42)/2</f>
+      <c r="I38" s="2">
+        <f>(43.42+42)/2</f>
         <v>42.71</v>
       </c>
       <c r="J38" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Data_Manual/VIX_Transactions_Brokerage.xlsx
+++ b/Data_Manual/VIX_Transactions_Brokerage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="169">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -52,12 +52,57 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">08/01/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell to Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX 09/17/2025 20.00 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL CBOE VOLATILITY IDX$20 EXP 09/17/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$5.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1519.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold half of position due to theta drag, held remaining half for vol spike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/23/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy to Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIX 10/22/2025 21.00 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL CBOE VOLATILITY IDX$21 EXP 10/22/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-$2930.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued low volatility, opened long dated call position; VIX level at 4th historical decile</t>
+  </si>
+  <si>
     <t xml:space="preserve">07/17/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Buy to Open</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIX 10/22/2025 23.00 C</t>
   </si>
   <si>
@@ -67,15 +112,9 @@
     <t xml:space="preserve">$2.75</t>
   </si>
   <si>
-    <t xml:space="preserve">$10.81</t>
-  </si>
-  <si>
     <t xml:space="preserve">-$2760.81</t>
   </si>
   <si>
-    <t xml:space="preserve">Continued low volatility, opened long dated call position; VIX level at 4th historical decile</t>
-  </si>
-  <si>
     <t xml:space="preserve">06/26/2025</t>
   </si>
   <si>
@@ -94,12 +133,6 @@
     <t xml:space="preserve">Opened long dated call position; VIX level at 4th historical decile</t>
   </si>
   <si>
-    <t xml:space="preserve">VIX 09/17/2025 20.00 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL CBOE VOLATILITY IDX$20 EXP 09/17/25</t>
-  </si>
-  <si>
     <t xml:space="preserve">$3.00</t>
   </si>
   <si>
@@ -109,9 +142,6 @@
     <t xml:space="preserve">05/13/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Sell to Close</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIX 08/20/2025 45.00 P</t>
   </si>
   <si>
@@ -356,9 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">$8.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.40</t>
   </si>
   <si>
     <t xml:space="preserve">-$4280.40</t>
@@ -585,15 +612,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -720,10 +747,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -762,18 +789,18 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -786,338 +813,338 @@
         <v>13</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>20.48</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>16.43</v>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>15.4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
+      <c r="A4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="n">
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>16.37</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>18.06</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>17.96</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>17.79</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>17.72</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="D11" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
+      <c r="A12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="1" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>64</v>
@@ -1126,836 +1153,900 @@
         <v>65</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>58</v>
+      <c r="I13" s="1" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
+      <c r="A14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="3" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="D16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>19.47</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>24.49</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
+      <c r="A18" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>27.37</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>90</v>
+      <c r="A19" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
+      <c r="A20" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="2" t="n">
-        <v>49.07</v>
-      </c>
-      <c r="J20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>94</v>
+      <c r="A21" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>55.44</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>94</v>
+      <c r="A22" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="2" t="n">
+      <c r="F22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>53.65</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="2" t="n">
+      <c r="F25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="1" t="n">
         <f aca="false">(39.27+38.49)/2</f>
         <v>38.88</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="J25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="2" t="n">
+      <c r="F26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="1" t="n">
         <f aca="false">(37.11+36.8)/2</f>
         <v>36.955</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="2" t="n">
+      <c r="F27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="1" t="n">
         <f aca="false">(37.03+35.89)/2</f>
         <v>36.46</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="2" t="n">
+      <c r="F28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="1" t="n">
         <f aca="false">(37.41+35.81)/2</f>
         <v>36.61</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="2" t="n">
+      <c r="F29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <f aca="false">(29.29+28.77)/2</f>
         <v>29.03</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="2" t="n">
+      <c r="F30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="1" t="n">
         <f aca="false">(27.79+27.46)/2</f>
         <v>27.625</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="2" t="n">
+      <c r="F31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="1" t="n">
         <f aca="false">(18.04+17.98)/2</f>
         <v>18.01</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="2" t="n">
+      <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="1" t="n">
         <f aca="false">(27.7+27.37)/2</f>
         <v>27.535</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="J32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="2" t="n">
+      <c r="F33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="1" t="n">
         <f aca="false">(26.15+25.34)/2</f>
         <v>25.745</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="2" t="n">
+      <c r="F34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="1" t="n">
         <f aca="false">(14.08+14.01)/2</f>
         <v>14.045</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="2" t="n">
+      <c r="F35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="1" t="n">
         <f aca="false">(22.51+22.35)/2</f>
         <v>22.43</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="2" t="n">
+      <c r="F36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="1" t="n">
         <f aca="false">(18.92+18.78)/2</f>
         <v>18.85</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="2" t="n">
+      <c r="F37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="1" t="n">
         <f aca="false">(16.59+16.4)/2</f>
         <v>16.495</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36" s="2" t="n">
+      <c r="F38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" s="1" t="n">
         <f aca="false">(27.48+26.74)/2</f>
         <v>27.11</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I37" s="2" t="n">
+      <c r="F39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="1" t="n">
         <f aca="false">(32.72+31.83)/2</f>
         <v>32.275</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I38" s="2" t="n">
+      <c r="F40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="1" t="n">
         <f aca="false">(34.61+34.05)/2</f>
         <v>34.33</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" s="2" t="n">
+      <c r="F41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="1" t="n">
         <f aca="false">(43.42+42)/2</f>
         <v>42.71</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
